--- a/va_facility_data_2025-02-20/Wytheville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Wytheville%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Wytheville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Wytheville%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R5e47ba8eb72d4db8b42a85a5f4a86f90"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5db1280d61a942df8aa263e62e4e45a6"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1f966105a2b5411ab04c20baa5b32769"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R835cfb2077134ddba3d3030d385e631a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R22ca882489ff448a9ee34443444ecf23"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R56c92156afd049e886b1c06ec53fd904"/>
   </x:sheets>
 </x:workbook>
 </file>
